--- a/biology/Microbiologie/Bouillon_lactosé_bilié_au_vert_brillant/Bouillon_lactosé_bilié_au_vert_brillant.xlsx
+++ b/biology/Microbiologie/Bouillon_lactosé_bilié_au_vert_brillant/Bouillon_lactosé_bilié_au_vert_brillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouillon_lactos%C3%A9_bili%C3%A9_au_vert_brillant</t>
+          <t>Bouillon_lactosé_bilié_au_vert_brillant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouillon lactosé bilié au vert brillant (BLBVB) est une préparation de laboratoire permettant de détecter la présence de certaines bactéries, et de les dénombrer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouillon_lactos%C3%A9_bili%C3%A9_au_vert_brillant</t>
+          <t>Bouillon_lactosé_bilié_au_vert_brillant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dénombrement des coliformes totaux (24 et 48 h à une température de 30 ou 37 °C), coliformes thermotolérants (24 et 48 h à une température de 44 °C), et d'Escherichia coli en étape confirmative.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouillon_lactos%C3%A9_bili%C3%A9_au_vert_brillant</t>
+          <t>Bouillon_lactosé_bilié_au_vert_brillant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peptone	10,0 g
 Lactose	10,0 g
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouillon_lactos%C3%A9_bili%C3%A9_au_vert_brillant</t>
+          <t>Bouillon_lactosé_bilié_au_vert_brillant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">40 g par litre. Stérilisation classique.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouillon_lactos%C3%A9_bili%C3%A9_au_vert_brillant</t>
+          <t>Bouillon_lactosé_bilié_au_vert_brillant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La cloche de Durham permet le recueil des gaz signant la présence de coliformes, à condition que le milieu ait été agité correctement pour que les bactéries soient bien réparties, y compris sous la cloche. Le trouble du milieu et la production de gaz sont dues à la fermentation du lactose par les coliformes.
 Il est conseillé d'agiter légèrement le milieu plusieurs heures avant la lecture pour favoriser le dégagement de gaz sous la choche de Durham, qui, autrement, peut ne pas être observé pour les dilutions limites.
